--- a/SCH-STH/Impact assessments/Burkina Faso/2023 may/bf_202305_sch_impact_assessment_2_enrolement.xlsx
+++ b/SCH-STH/Impact assessments/Burkina Faso/2023 may/bf_202305_sch_impact_assessment_2_enrolement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Burkina Faso\2023 may\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6685A1A-348D-40E2-8138-0C9E98150924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53DB397-B675-4FAF-9C2F-4E43829ABB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="97">
   <si>
     <t>type</t>
   </si>
@@ -309,10 +309,10 @@
     <t>French</t>
   </si>
   <si>
-    <t>(BF - Mai 2023) impact schisto - 2. Formulaire Enrôlement</t>
-  </si>
-  <si>
-    <t>bf_202305_sch_impact_assessment_2_enrolement</t>
+    <t>(BF - Mai 2023) impact schisto - 2. Formulaire Enrôlement V1</t>
+  </si>
+  <si>
+    <t>bf_202305_sch_impact_assessment_2_enrolement_v1</t>
   </si>
 </sst>
 </file>
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1004,7 +1004,9 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="J9" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="19"/>
@@ -1024,6 +1026,9 @@
       </c>
       <c r="G10" t="s">
         <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
@@ -1441,7 +1446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/SCH-STH/Impact assessments/Burkina Faso/2023 may/bf_202305_sch_impact_assessment_2_enrolement.xlsx
+++ b/SCH-STH/Impact assessments/Burkina Faso/2023 may/bf_202305_sch_impact_assessment_2_enrolement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Burkina Faso\2023 may\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53DB397-B675-4FAF-9C2F-4E43829ABB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A80074-5E5D-418C-A5CD-3E62713B882C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,9 +162,6 @@
     <t>Age</t>
   </si>
   <si>
-    <t>. &gt;= 4 and . &lt;= 15</t>
-  </si>
-  <si>
     <t>Doit être comprise entre 5 et 110</t>
   </si>
   <si>
@@ -309,10 +306,13 @@
     <t>French</t>
   </si>
   <si>
-    <t>(BF - Mai 2023) impact schisto - 2. Formulaire Enrôlement V1</t>
-  </si>
-  <si>
-    <t>bf_202305_sch_impact_assessment_2_enrolement_v1</t>
+    <t>(BF - Mai 2023) impact schisto - 2. Formulaire Enrôlement V1.1</t>
+  </si>
+  <si>
+    <t>bf_202305_sch_impact_assessment_2_enrolement_v1_1</t>
+  </si>
+  <si>
+    <t>. &gt;= 5 and . &lt;= 15</t>
   </si>
 </sst>
 </file>
@@ -375,8 +375,9 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -438,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -462,27 +463,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,22 +795,25 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="57.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="9" max="9" width="33.7109375" customWidth="1"/>
-    <col min="11" max="11" width="41.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="57.42578125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="18" style="17" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="33.7109375" style="17" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="17"/>
+    <col min="11" max="11" width="41.140625" style="17" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="17"/>
+    <col min="13" max="13" width="13.7109375" style="17" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="8" customFormat="1" ht="18.75">
@@ -862,10 +867,10 @@
       <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -876,10 +881,10 @@
       <c r="B3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -890,318 +895,318 @@
       <c r="B4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:14" ht="15.75">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
       <c r="M5" s="19"/>
     </row>
     <row r="6" spans="1:14" s="9" customFormat="1" ht="15.75">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="20"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="15"/>
     </row>
     <row r="7" spans="1:14" s="9" customFormat="1" ht="15.75">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="20"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:14" ht="15.75">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="G8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
       <c r="M8" s="19"/>
     </row>
     <row r="9" spans="1:14" ht="15.75">
-      <c r="A9" t="s">
+      <c r="A9" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="45">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="16" t="s">
+      <c r="F11" s="18"/>
+      <c r="G11" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="J11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="J11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
       <c r="M11" s="19"/>
-      <c r="N11" t="s">
+      <c r="N11" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="B13" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="J13" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="C14" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
+      <c r="J14" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B15" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="C15" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" t="s">
+      <c r="J15" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B16" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="C16" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="J16" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="13" t="s">
+      <c r="B17" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C17" t="s">
+      <c r="H17" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="18" t="s">
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="18" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="13" t="s">
+      <c r="B18" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="17" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
+      <c r="B19" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="18" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="13" t="s">
+      <c r="B20" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B20" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="13"/>
+      <c r="A23" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1223,7 +1228,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1232,101 +1237,101 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1">
@@ -1334,24 +1339,24 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
         <v>81</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>82</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
         <v>84</v>
-      </c>
-      <c r="C12" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1">
@@ -1359,24 +1364,24 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1"/>
@@ -1458,24 +1463,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
         <v>91</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
